--- a/removed_cross_edges_VS_found_specs.xlsx
+++ b/removed_cross_edges_VS_found_specs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nv01501827.bmwgroup.net\Q456616\MA_Thesis\evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ADA31C7D-E52B-44EF-BF3E-CABA86AF3021}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="7">
   <si>
     <t>remove</t>
   </si>
@@ -43,15 +44,26 @@
   <si>
     <t>100.0</t>
   </si>
+  <si>
+    <t>\\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="BMW Group Condensed"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="BMW Group Condensed"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,14 +86,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,20 +598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J62"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68:O128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="5" width="10.88671875" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -658,18 +678,6 @@
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -701,7 +709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>1</v>
       </c>
@@ -717,18 +725,6 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
       <c r="O3">
         <v>1</v>
       </c>
@@ -760,7 +756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
@@ -776,18 +772,6 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
       <c r="O4">
         <v>2</v>
       </c>
@@ -819,7 +803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>3</v>
       </c>
@@ -835,18 +819,6 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>95.855081363217593</v>
-      </c>
-      <c r="H5">
-        <v>97.715736040609102</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
       <c r="O5">
         <v>3</v>
       </c>
@@ -878,7 +850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>4</v>
       </c>
@@ -894,18 +866,6 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>96.0060514372163</v>
-      </c>
-      <c r="H6">
-        <v>97.727272727272705</v>
-      </c>
-      <c r="I6">
-        <v>99.848024316109402</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
       <c r="O6">
         <v>4</v>
       </c>
@@ -937,7 +897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>5</v>
       </c>
@@ -953,18 +913,6 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>96.210191082802496</v>
-      </c>
-      <c r="H7">
-        <v>97.822445561139006</v>
-      </c>
-      <c r="I7">
-        <v>99.849170437405704</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
       <c r="O7">
         <v>5</v>
       </c>
@@ -996,7 +944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1012,18 +960,6 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>95.331230283911594</v>
-      </c>
-      <c r="H8">
-        <v>97.4004874086108</v>
-      </c>
-      <c r="I8">
-        <v>99.692780337941599</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
       <c r="O8">
         <v>6</v>
       </c>
@@ -1055,7 +991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1071,18 +1007,6 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="G9">
-        <v>90.803544149098698</v>
-      </c>
-      <c r="H9">
-        <v>95.311236863379094</v>
-      </c>
-      <c r="I9">
-        <v>99.544072948328207</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
       <c r="O9">
         <v>7</v>
       </c>
@@ -1114,7 +1038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1130,18 +1054,6 @@
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>92.152239811384305</v>
-      </c>
-      <c r="H10">
-        <v>95.996663886572094</v>
-      </c>
-      <c r="I10">
-        <v>99.386503067484597</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
       <c r="O10">
         <v>8</v>
       </c>
@@ -1173,7 +1085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1189,18 +1101,6 @@
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="G11">
-        <v>91.832085909534598</v>
-      </c>
-      <c r="H11">
-        <v>94.146341463414601</v>
-      </c>
-      <c r="I11">
-        <v>99.549549549549496</v>
-      </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
       <c r="O11">
         <v>9</v>
       </c>
@@ -1232,7 +1132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1248,18 +1148,6 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="G12">
-        <v>90.621079046424001</v>
-      </c>
-      <c r="H12">
-        <v>96.669513236549903</v>
-      </c>
-      <c r="I12">
-        <v>99.249249249249203</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
       <c r="O12">
         <v>10</v>
       </c>
@@ -1291,7 +1179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1307,18 +1195,6 @@
       <c r="E13">
         <v>100</v>
       </c>
-      <c r="G13">
-        <v>88.507661558960606</v>
-      </c>
-      <c r="H13">
-        <v>92.908366533864495</v>
-      </c>
-      <c r="I13">
-        <v>99.074074074074005</v>
-      </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
       <c r="O13">
         <v>11</v>
       </c>
@@ -1350,7 +1226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1366,18 +1242,6 @@
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="G14">
-        <v>87.189947780678807</v>
-      </c>
-      <c r="H14">
-        <v>93.180015860428199</v>
-      </c>
-      <c r="I14">
-        <v>99.099099099099007</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
       <c r="O14">
         <v>12</v>
       </c>
@@ -1409,7 +1273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1425,18 +1289,6 @@
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="G15">
-        <v>87.451235370611101</v>
-      </c>
-      <c r="H15">
-        <v>94.288224956063203</v>
-      </c>
-      <c r="I15">
-        <v>98.118668596237299</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
       <c r="O15">
         <v>13</v>
       </c>
@@ -1468,7 +1320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1484,18 +1336,6 @@
       <c r="E16">
         <v>100</v>
       </c>
-      <c r="G16">
-        <v>86.836212412028104</v>
-      </c>
-      <c r="H16">
-        <v>93.827160493827094</v>
-      </c>
-      <c r="I16">
-        <v>98.644578313253007</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
       <c r="O16">
         <v>14</v>
       </c>
@@ -1527,7 +1367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1543,18 +1383,6 @@
       <c r="E17">
         <v>100</v>
       </c>
-      <c r="G17">
-        <v>83.405842137973806</v>
-      </c>
-      <c r="H17">
-        <v>92.045454545454504</v>
-      </c>
-      <c r="I17">
-        <v>98.129496402877706</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
       <c r="O17">
         <v>15</v>
       </c>
@@ -1586,7 +1414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1602,18 +1430,6 @@
       <c r="E18">
         <v>100</v>
       </c>
-      <c r="G18">
-        <v>82.375366568914899</v>
-      </c>
-      <c r="H18">
-        <v>91.361702127659498</v>
-      </c>
-      <c r="I18">
-        <v>98.784194528875304</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
       <c r="O18">
         <v>16</v>
       </c>
@@ -1645,7 +1461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1661,18 +1477,6 @@
       <c r="E19">
         <v>100</v>
       </c>
-      <c r="G19">
-        <v>83.748403575989698</v>
-      </c>
-      <c r="H19">
-        <v>90.722433460076005</v>
-      </c>
-      <c r="I19">
-        <v>98.187311178247697</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
       <c r="O19">
         <v>17</v>
       </c>
@@ -1704,7 +1508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1720,18 +1524,6 @@
       <c r="E20">
         <v>100</v>
       </c>
-      <c r="G20">
-        <v>82.972230698809895</v>
-      </c>
-      <c r="H20">
-        <v>90.6072874493927</v>
-      </c>
-      <c r="I20">
-        <v>97.372262773722596</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
       <c r="O20">
         <v>18</v>
       </c>
@@ -1763,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1779,18 +1571,6 @@
       <c r="E21">
         <v>100</v>
       </c>
-      <c r="G21">
-        <v>79.213664195939401</v>
-      </c>
-      <c r="H21">
-        <v>87.382445141065801</v>
-      </c>
-      <c r="I21">
-        <v>98.644578313253007</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
       <c r="O21">
         <v>19</v>
       </c>
@@ -1822,7 +1602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1838,18 +1618,6 @@
       <c r="E22">
         <v>100</v>
       </c>
-      <c r="G22">
-        <v>80.483922317733203</v>
-      </c>
-      <c r="H22">
-        <v>88.691437802907899</v>
-      </c>
-      <c r="I22">
-        <v>97.904191616766397</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
       <c r="O22">
         <v>20</v>
       </c>
@@ -1881,7 +1649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1897,18 +1665,6 @@
       <c r="E23">
         <v>100</v>
       </c>
-      <c r="G23">
-        <v>78.359375</v>
-      </c>
-      <c r="H23">
-        <v>89.542989930286595</v>
-      </c>
-      <c r="I23">
-        <v>98.507462686567095</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
       <c r="O23">
         <v>21</v>
       </c>
@@ -1940,7 +1696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1956,18 +1712,6 @@
       <c r="E24">
         <v>100</v>
       </c>
-      <c r="G24">
-        <v>80.947867298578203</v>
-      </c>
-      <c r="H24">
-        <v>89.0222984562607</v>
-      </c>
-      <c r="I24">
-        <v>96.092619392185199</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
       <c r="O24">
         <v>22</v>
       </c>
@@ -1999,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2015,18 +1759,6 @@
       <c r="E25">
         <v>100</v>
       </c>
-      <c r="G25">
-        <v>76.831185161898702</v>
-      </c>
-      <c r="H25">
-        <v>86.422413793103402</v>
-      </c>
-      <c r="I25">
-        <v>97.176820208023699</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
       <c r="O25">
         <v>23</v>
       </c>
@@ -2058,7 +1790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2074,18 +1806,6 @@
       <c r="E26">
         <v>100</v>
       </c>
-      <c r="G26">
-        <v>75.606014114759105</v>
-      </c>
-      <c r="H26">
-        <v>87.840065952184602</v>
-      </c>
-      <c r="I26">
-        <v>97.485207100591694</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
       <c r="O26">
         <v>24</v>
       </c>
@@ -2117,7 +1837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2133,18 +1853,6 @@
       <c r="E27">
         <v>100</v>
       </c>
-      <c r="G27">
-        <v>75.701530612244895</v>
-      </c>
-      <c r="H27">
-        <v>86.867088607594894</v>
-      </c>
-      <c r="I27">
-        <v>96.092619392185199</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
       <c r="O27">
         <v>25</v>
       </c>
@@ -2176,7 +1884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2192,18 +1900,6 @@
       <c r="E28">
         <v>100</v>
       </c>
-      <c r="G28">
-        <v>76.447811447811404</v>
-      </c>
-      <c r="H28">
-        <v>88.237738985868603</v>
-      </c>
-      <c r="I28">
-        <v>98.468606431852905</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
       <c r="O28">
         <v>26</v>
       </c>
@@ -2235,7 +1931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2251,18 +1947,6 @@
       <c r="E29">
         <v>100</v>
       </c>
-      <c r="G29">
-        <v>76.883843369529401</v>
-      </c>
-      <c r="H29">
-        <v>85.936222403924702</v>
-      </c>
-      <c r="I29">
-        <v>97.622585438335804</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
       <c r="O29">
         <v>27</v>
       </c>
@@ -2294,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2310,18 +1994,6 @@
       <c r="E30">
         <v>100</v>
       </c>
-      <c r="G30">
-        <v>73.621178695241099</v>
-      </c>
-      <c r="H30">
-        <v>86.756756756756701</v>
-      </c>
-      <c r="I30">
-        <v>96.978851963746195</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
       <c r="O30">
         <v>28</v>
       </c>
@@ -2353,7 +2025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2369,18 +2041,6 @@
       <c r="E31">
         <v>100</v>
       </c>
-      <c r="G31">
-        <v>71.887739103167107</v>
-      </c>
-      <c r="H31">
-        <v>85.191082802547697</v>
-      </c>
-      <c r="I31">
-        <v>97.185185185185105</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
       <c r="O31">
         <v>29</v>
       </c>
@@ -2412,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2428,18 +2088,6 @@
       <c r="E32">
         <v>100</v>
       </c>
-      <c r="G32">
-        <v>72.188595093978904</v>
-      </c>
-      <c r="H32">
-        <v>84.505928853754895</v>
-      </c>
-      <c r="I32">
-        <v>95.965417867435093</v>
-      </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
       <c r="O32">
         <v>30</v>
       </c>
@@ -2471,7 +2119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2487,18 +2135,6 @@
       <c r="E33">
         <v>100</v>
       </c>
-      <c r="G33">
-        <v>72.243902439024296</v>
-      </c>
-      <c r="H33">
-        <v>84.253499222395007</v>
-      </c>
-      <c r="I33">
-        <v>98.461538461538396</v>
-      </c>
-      <c r="J33">
-        <v>100</v>
-      </c>
       <c r="O33">
         <v>31</v>
       </c>
@@ -2530,7 +2166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2546,18 +2182,6 @@
       <c r="E34">
         <v>100</v>
       </c>
-      <c r="G34">
-        <v>69.671330946957298</v>
-      </c>
-      <c r="H34">
-        <v>84.070796460176993</v>
-      </c>
-      <c r="I34">
-        <v>96.285289747399702</v>
-      </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
       <c r="O34">
         <v>32</v>
       </c>
@@ -2589,7 +2213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2605,18 +2229,6 @@
       <c r="E35">
         <v>100</v>
       </c>
-      <c r="G35">
-        <v>68.164435946462703</v>
-      </c>
-      <c r="H35">
-        <v>80.434782608695599</v>
-      </c>
-      <c r="I35">
-        <v>96.285289747399702</v>
-      </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
       <c r="O35">
         <v>33</v>
       </c>
@@ -2648,7 +2260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2664,18 +2276,6 @@
       <c r="E36">
         <v>100</v>
       </c>
-      <c r="G36">
-        <v>70.091324200913206</v>
-      </c>
-      <c r="H36">
-        <v>82.557189542483599</v>
-      </c>
-      <c r="I36">
-        <v>97.819314641744498</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
       <c r="O36">
         <v>34</v>
       </c>
@@ -2707,7 +2307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2723,18 +2323,6 @@
       <c r="E37">
         <v>100</v>
       </c>
-      <c r="G37">
-        <v>66.552136241410196</v>
-      </c>
-      <c r="H37">
-        <v>80.775193798449607</v>
-      </c>
-      <c r="I37">
-        <v>96.740740740740705</v>
-      </c>
-      <c r="J37">
-        <v>100</v>
-      </c>
       <c r="O37">
         <v>35</v>
       </c>
@@ -2766,7 +2354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2782,18 +2370,6 @@
       <c r="E38">
         <v>100</v>
       </c>
-      <c r="G38">
-        <v>63.7667887667887</v>
-      </c>
-      <c r="H38">
-        <v>80.782608695652101</v>
-      </c>
-      <c r="I38">
-        <v>96.257485029940099</v>
-      </c>
-      <c r="J38">
-        <v>100</v>
-      </c>
       <c r="O38">
         <v>36</v>
       </c>
@@ -2825,7 +2401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2841,18 +2417,6 @@
       <c r="E39">
         <v>100</v>
       </c>
-      <c r="G39">
-        <v>64.882837238758697</v>
-      </c>
-      <c r="H39">
-        <v>80.586816720257204</v>
-      </c>
-      <c r="I39">
-        <v>96.483180428134503</v>
-      </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
       <c r="O39">
         <v>37</v>
       </c>
@@ -2884,7 +2448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2900,18 +2464,6 @@
       <c r="E40">
         <v>100</v>
       </c>
-      <c r="G40">
-        <v>67.037552155771905</v>
-      </c>
-      <c r="H40">
-        <v>79.737489745693196</v>
-      </c>
-      <c r="I40">
-        <v>96.661608497723805</v>
-      </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
       <c r="O40">
         <v>38</v>
       </c>
@@ -2943,7 +2495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2959,18 +2511,6 @@
       <c r="E41">
         <v>100</v>
       </c>
-      <c r="G41">
-        <v>64.402668283808296</v>
-      </c>
-      <c r="H41">
-        <v>80.481513327600993</v>
-      </c>
-      <c r="I41">
-        <v>96.671709531013605</v>
-      </c>
-      <c r="J41">
-        <v>100</v>
-      </c>
       <c r="O41">
         <v>39</v>
       </c>
@@ -3002,7 +2542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3018,18 +2558,6 @@
       <c r="E42">
         <v>100</v>
       </c>
-      <c r="G42">
-        <v>64.165009940357805</v>
-      </c>
-      <c r="H42">
-        <v>77.084957131722504</v>
-      </c>
-      <c r="I42">
-        <v>94.403534609720097</v>
-      </c>
-      <c r="J42">
-        <v>100</v>
-      </c>
       <c r="O42">
         <v>40</v>
       </c>
@@ -3061,7 +2589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3077,18 +2605,6 @@
       <c r="E43">
         <v>100</v>
       </c>
-      <c r="G43">
-        <v>60.390977443609003</v>
-      </c>
-      <c r="H43">
-        <v>77.990033222591293</v>
-      </c>
-      <c r="I43">
-        <v>95.783132530120398</v>
-      </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
       <c r="O43">
         <v>41</v>
       </c>
@@ -3120,7 +2636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3136,18 +2652,6 @@
       <c r="E44">
         <v>100</v>
       </c>
-      <c r="G44">
-        <v>62.569195701725803</v>
-      </c>
-      <c r="H44">
-        <v>76.652892561983407</v>
-      </c>
-      <c r="I44">
-        <v>96.312684365781706</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
       <c r="O44">
         <v>42</v>
       </c>
@@ -3179,7 +2683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3195,18 +2699,6 @@
       <c r="E45">
         <v>100</v>
       </c>
-      <c r="G45">
-        <v>61.6113744075829</v>
-      </c>
-      <c r="H45">
-        <v>77.539682539682502</v>
-      </c>
-      <c r="I45">
-        <v>95.359281437125702</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
       <c r="O45">
         <v>43</v>
       </c>
@@ -3238,7 +2730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3254,18 +2746,6 @@
       <c r="E46">
         <v>100</v>
       </c>
-      <c r="G46">
-        <v>59.8078197481776</v>
-      </c>
-      <c r="H46">
-        <v>77.0247933884297</v>
-      </c>
-      <c r="I46">
-        <v>94.194484760522499</v>
-      </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
       <c r="O46">
         <v>44</v>
       </c>
@@ -3297,7 +2777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3313,18 +2793,6 @@
       <c r="E47">
         <v>100</v>
       </c>
-      <c r="G47">
-        <v>59.525326537113699</v>
-      </c>
-      <c r="H47">
-        <v>77.269010629599293</v>
-      </c>
-      <c r="I47">
-        <v>95.259259259259196</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
       <c r="O47">
         <v>45</v>
       </c>
@@ -3356,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3372,18 +2840,6 @@
       <c r="E48">
         <v>100</v>
       </c>
-      <c r="G48">
-        <v>59.798593350383598</v>
-      </c>
-      <c r="H48">
-        <v>76.704545454545396</v>
-      </c>
-      <c r="I48">
-        <v>95.678092399403795</v>
-      </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
       <c r="O48">
         <v>46</v>
       </c>
@@ -3415,7 +2871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3431,18 +2887,6 @@
       <c r="E49">
         <v>100</v>
       </c>
-      <c r="G49">
-        <v>57.429837518463799</v>
-      </c>
-      <c r="H49">
-        <v>75.9558198810535</v>
-      </c>
-      <c r="I49">
-        <v>94.650817236255506</v>
-      </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
       <c r="O49">
         <v>47</v>
       </c>
@@ -3474,7 +2918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3490,18 +2934,6 @@
       <c r="E50">
         <v>100</v>
       </c>
-      <c r="G50">
-        <v>55.887096774193502</v>
-      </c>
-      <c r="H50">
-        <v>73.534269199009003</v>
-      </c>
-      <c r="I50">
-        <v>95.993836671802697</v>
-      </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
       <c r="O50">
         <v>48</v>
       </c>
@@ -3533,7 +2965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3549,18 +2981,6 @@
       <c r="E51">
         <v>100</v>
       </c>
-      <c r="G51">
-        <v>56.773359198189397</v>
-      </c>
-      <c r="H51">
-        <v>75.533661740558202</v>
-      </c>
-      <c r="I51">
-        <v>94.7916666666666</v>
-      </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
       <c r="O51">
         <v>49</v>
       </c>
@@ -3592,7 +3012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3608,18 +3028,6 @@
       <c r="E52">
         <v>100</v>
       </c>
-      <c r="G52">
-        <v>56.682103870327403</v>
-      </c>
-      <c r="H52">
-        <v>75.396163469557905</v>
-      </c>
-      <c r="I52">
-        <v>93.426883308714906</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
       <c r="O52">
         <v>50</v>
       </c>
@@ -3651,7 +3059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3667,18 +3075,6 @@
       <c r="E53">
         <v>100</v>
       </c>
-      <c r="G53">
-        <v>54.076809453471199</v>
-      </c>
-      <c r="H53">
-        <v>72.346153846153797</v>
-      </c>
-      <c r="I53">
-        <v>94.705882352941103</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
       <c r="O53">
         <v>51</v>
       </c>
@@ -3710,7 +3106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3726,18 +3122,6 @@
       <c r="E54">
         <v>100</v>
       </c>
-      <c r="G54">
-        <v>55.104961832061001</v>
-      </c>
-      <c r="H54">
-        <v>73.926868044515103</v>
-      </c>
-      <c r="I54">
-        <v>95.447647951441496</v>
-      </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
       <c r="O54">
         <v>52</v>
       </c>
@@ -3769,7 +3153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3785,18 +3169,6 @@
       <c r="E55">
         <v>100</v>
       </c>
-      <c r="G55">
-        <v>53.494889548301998</v>
-      </c>
-      <c r="H55">
-        <v>70.939490445859803</v>
-      </c>
-      <c r="I55">
-        <v>93.955223880597003</v>
-      </c>
-      <c r="J55">
-        <v>100</v>
-      </c>
       <c r="O55">
         <v>53</v>
       </c>
@@ -3828,7 +3200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3844,18 +3216,6 @@
       <c r="E56">
         <v>100</v>
       </c>
-      <c r="G56">
-        <v>52.870967741935402</v>
-      </c>
-      <c r="H56">
-        <v>72.819885900570497</v>
-      </c>
-      <c r="I56">
-        <v>94.047619047618994</v>
-      </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
       <c r="O56">
         <v>54</v>
       </c>
@@ -3887,7 +3247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3903,18 +3263,6 @@
       <c r="E57">
         <v>100</v>
       </c>
-      <c r="G57">
-        <v>52.741514360313303</v>
-      </c>
-      <c r="H57">
-        <v>71.921797004991603</v>
-      </c>
-      <c r="I57">
-        <v>94.586466165413498</v>
-      </c>
-      <c r="J57">
-        <v>100</v>
-      </c>
       <c r="O57">
         <v>55</v>
       </c>
@@ -3946,7 +3294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3962,18 +3310,6 @@
       <c r="E58">
         <v>100</v>
       </c>
-      <c r="G58">
-        <v>53.3077660594439</v>
-      </c>
-      <c r="H58">
-        <v>67.623546511627893</v>
-      </c>
-      <c r="I58">
-        <v>95.612708018154294</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
       <c r="O58">
         <v>56</v>
       </c>
@@ -4005,7 +3341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4021,18 +3357,6 @@
       <c r="E59">
         <v>100</v>
       </c>
-      <c r="G59">
-        <v>48.527245949926296</v>
-      </c>
-      <c r="H59">
-        <v>68.564554931836398</v>
-      </c>
-      <c r="I59">
-        <v>94.561933534743204</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
       <c r="O59">
         <v>57</v>
       </c>
@@ -4064,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4080,18 +3404,6 @@
       <c r="E60">
         <v>100</v>
       </c>
-      <c r="G60">
-        <v>50.855417645085502</v>
-      </c>
-      <c r="H60">
-        <v>66.395348837209298</v>
-      </c>
-      <c r="I60">
-        <v>93.231441048034895</v>
-      </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
       <c r="O60">
         <v>58</v>
       </c>
@@ -4123,7 +3435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4139,18 +3451,6 @@
       <c r="E61">
         <v>100</v>
       </c>
-      <c r="G61">
-        <v>50.432692307692299</v>
-      </c>
-      <c r="H61">
-        <v>67.5</v>
-      </c>
-      <c r="I61">
-        <v>95.433789954337897</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
       <c r="O61">
         <v>59</v>
       </c>
@@ -4182,7 +3482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4198,18 +3498,6 @@
       <c r="E62">
         <v>100</v>
       </c>
-      <c r="G62">
-        <v>49.706935851514103</v>
-      </c>
-      <c r="H62">
-        <v>67.666126418152302</v>
-      </c>
-      <c r="I62">
-        <v>93.553223388305796</v>
-      </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
       <c r="O62">
         <v>60</v>
       </c>
@@ -4241,7 +3529,2331 @@
         <v>100</v>
       </c>
     </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>100</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>100</v>
+      </c>
+      <c r="O69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>100</v>
+      </c>
+      <c r="O70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>95.855081363217593</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>97.715736040609102</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>100</v>
+      </c>
+      <c r="O71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>96.0060514372163</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>97.727272727272705</v>
+      </c>
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>99.848024316109402</v>
+      </c>
+      <c r="K72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>100</v>
+      </c>
+      <c r="O72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>96.210191082802496</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>97.822445561139006</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>99.849170437405704</v>
+      </c>
+      <c r="K73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>100</v>
+      </c>
+      <c r="O73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>95.331230283911594</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>97.4004874086108</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>99.692780337941599</v>
+      </c>
+      <c r="K74" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
+        <v>100</v>
+      </c>
+      <c r="O74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>90.803544149098698</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>95.311236863379094</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>99.544072948328207</v>
+      </c>
+      <c r="K75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>7</v>
+      </c>
+      <c r="N75">
+        <v>100</v>
+      </c>
+      <c r="O75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>92.152239811384305</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>95.996663886572094</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <v>99.386503067484597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>8</v>
+      </c>
+      <c r="N76">
+        <v>100</v>
+      </c>
+      <c r="O76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>91.832085909534598</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>94.146341463414601</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>9</v>
+      </c>
+      <c r="J77">
+        <v>99.549549549549496</v>
+      </c>
+      <c r="K77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+      <c r="N77">
+        <v>100</v>
+      </c>
+      <c r="O77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>90.621079046424001</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>96.669513236549903</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>99.249249249249203</v>
+      </c>
+      <c r="K78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>100</v>
+      </c>
+      <c r="O78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>88.507661558960606</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>92.908366533864495</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>11</v>
+      </c>
+      <c r="J79">
+        <v>99.074074074074005</v>
+      </c>
+      <c r="K79" t="s">
+        <v>6</v>
+      </c>
+      <c r="M79">
+        <v>11</v>
+      </c>
+      <c r="N79">
+        <v>100</v>
+      </c>
+      <c r="O79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>87.189947780678807</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>93.180015860428199</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>12</v>
+      </c>
+      <c r="J80">
+        <v>99.099099099099007</v>
+      </c>
+      <c r="K80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>12</v>
+      </c>
+      <c r="N80">
+        <v>100</v>
+      </c>
+      <c r="O80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>87.451235370611101</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>94.288224956063203</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>13</v>
+      </c>
+      <c r="J81">
+        <v>98.118668596237299</v>
+      </c>
+      <c r="K81" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81">
+        <v>13</v>
+      </c>
+      <c r="N81">
+        <v>100</v>
+      </c>
+      <c r="O81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>86.836212412028104</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>93.827160493827094</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>14</v>
+      </c>
+      <c r="J82">
+        <v>98.644578313253007</v>
+      </c>
+      <c r="K82" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>100</v>
+      </c>
+      <c r="O82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>83.405842137973806</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+      <c r="F83">
+        <v>92.045454545454504</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>15</v>
+      </c>
+      <c r="J83">
+        <v>98.129496402877706</v>
+      </c>
+      <c r="K83" t="s">
+        <v>6</v>
+      </c>
+      <c r="M83">
+        <v>15</v>
+      </c>
+      <c r="N83">
+        <v>100</v>
+      </c>
+      <c r="O83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>82.375366568914899</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>16</v>
+      </c>
+      <c r="F84">
+        <v>91.361702127659498</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <v>98.784194528875304</v>
+      </c>
+      <c r="K84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84">
+        <v>16</v>
+      </c>
+      <c r="N84">
+        <v>100</v>
+      </c>
+      <c r="O84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>83.748403575989698</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>90.722433460076005</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>17</v>
+      </c>
+      <c r="J85">
+        <v>98.187311178247697</v>
+      </c>
+      <c r="K85" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>100</v>
+      </c>
+      <c r="O85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>82.972230698809895</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>90.6072874493927</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>18</v>
+      </c>
+      <c r="J86">
+        <v>97.372262773722596</v>
+      </c>
+      <c r="K86" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86">
+        <v>18</v>
+      </c>
+      <c r="N86">
+        <v>100</v>
+      </c>
+      <c r="O86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>79.213664195939401</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>19</v>
+      </c>
+      <c r="F87">
+        <v>87.382445141065801</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>19</v>
+      </c>
+      <c r="J87">
+        <v>98.644578313253007</v>
+      </c>
+      <c r="K87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87">
+        <v>19</v>
+      </c>
+      <c r="N87">
+        <v>100</v>
+      </c>
+      <c r="O87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <v>80.483922317733203</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>88.691437802907899</v>
+      </c>
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>20</v>
+      </c>
+      <c r="J88">
+        <v>97.904191616766397</v>
+      </c>
+      <c r="K88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88">
+        <v>20</v>
+      </c>
+      <c r="N88">
+        <v>100</v>
+      </c>
+      <c r="O88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>21</v>
+      </c>
+      <c r="B89">
+        <v>78.359375</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <v>89.542989930286595</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>21</v>
+      </c>
+      <c r="J89">
+        <v>98.507462686567095</v>
+      </c>
+      <c r="K89" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89">
+        <v>21</v>
+      </c>
+      <c r="N89">
+        <v>100</v>
+      </c>
+      <c r="O89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>80.947867298578203</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
+      </c>
+      <c r="F90">
+        <v>89.0222984562607</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>22</v>
+      </c>
+      <c r="J90">
+        <v>96.092619392185199</v>
+      </c>
+      <c r="K90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M90">
+        <v>22</v>
+      </c>
+      <c r="N90">
+        <v>100</v>
+      </c>
+      <c r="O90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91">
+        <v>76.831185161898702</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>23</v>
+      </c>
+      <c r="F91">
+        <v>86.422413793103402</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>23</v>
+      </c>
+      <c r="J91">
+        <v>97.176820208023699</v>
+      </c>
+      <c r="K91" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91">
+        <v>23</v>
+      </c>
+      <c r="N91">
+        <v>100</v>
+      </c>
+      <c r="O91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <v>75.606014114759105</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>24</v>
+      </c>
+      <c r="F92">
+        <v>87.840065952184602</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>24</v>
+      </c>
+      <c r="J92">
+        <v>97.485207100591694</v>
+      </c>
+      <c r="K92" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>24</v>
+      </c>
+      <c r="N92">
+        <v>100</v>
+      </c>
+      <c r="O92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93">
+        <v>75.701530612244895</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>25</v>
+      </c>
+      <c r="F93">
+        <v>86.867088607594894</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>25</v>
+      </c>
+      <c r="J93">
+        <v>96.092619392185199</v>
+      </c>
+      <c r="K93" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93">
+        <v>25</v>
+      </c>
+      <c r="N93">
+        <v>100</v>
+      </c>
+      <c r="O93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>76.447811447811404</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>26</v>
+      </c>
+      <c r="F94">
+        <v>88.237738985868603</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>26</v>
+      </c>
+      <c r="J94">
+        <v>98.468606431852905</v>
+      </c>
+      <c r="K94" t="s">
+        <v>6</v>
+      </c>
+      <c r="M94">
+        <v>26</v>
+      </c>
+      <c r="N94">
+        <v>100</v>
+      </c>
+      <c r="O94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>76.883843369529401</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>27</v>
+      </c>
+      <c r="F95">
+        <v>85.936222403924702</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>27</v>
+      </c>
+      <c r="J95">
+        <v>97.622585438335804</v>
+      </c>
+      <c r="K95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95">
+        <v>27</v>
+      </c>
+      <c r="N95">
+        <v>100</v>
+      </c>
+      <c r="O95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>73.621178695241099</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>28</v>
+      </c>
+      <c r="F96">
+        <v>86.756756756756701</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>28</v>
+      </c>
+      <c r="J96">
+        <v>96.978851963746195</v>
+      </c>
+      <c r="K96" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <v>28</v>
+      </c>
+      <c r="N96">
+        <v>100</v>
+      </c>
+      <c r="O96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>71.887739103167107</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>29</v>
+      </c>
+      <c r="F97">
+        <v>85.191082802547697</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>29</v>
+      </c>
+      <c r="J97">
+        <v>97.185185185185105</v>
+      </c>
+      <c r="K97" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>29</v>
+      </c>
+      <c r="N97">
+        <v>100</v>
+      </c>
+      <c r="O97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <v>72.188595093978904</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <v>84.505928853754895</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <v>95.965417867435093</v>
+      </c>
+      <c r="K98" t="s">
+        <v>6</v>
+      </c>
+      <c r="M98">
+        <v>30</v>
+      </c>
+      <c r="N98">
+        <v>100</v>
+      </c>
+      <c r="O98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>72.243902439024296</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>31</v>
+      </c>
+      <c r="F99">
+        <v>84.253499222395007</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>31</v>
+      </c>
+      <c r="J99">
+        <v>98.461538461538396</v>
+      </c>
+      <c r="K99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>31</v>
+      </c>
+      <c r="N99">
+        <v>100</v>
+      </c>
+      <c r="O99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <v>69.671330946957298</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>32</v>
+      </c>
+      <c r="F100">
+        <v>84.070796460176993</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>32</v>
+      </c>
+      <c r="J100">
+        <v>96.285289747399702</v>
+      </c>
+      <c r="K100" t="s">
+        <v>6</v>
+      </c>
+      <c r="M100">
+        <v>32</v>
+      </c>
+      <c r="N100">
+        <v>100</v>
+      </c>
+      <c r="O100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>33</v>
+      </c>
+      <c r="B101">
+        <v>68.164435946462703</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>33</v>
+      </c>
+      <c r="F101">
+        <v>80.434782608695599</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>33</v>
+      </c>
+      <c r="J101">
+        <v>96.285289747399702</v>
+      </c>
+      <c r="K101" t="s">
+        <v>6</v>
+      </c>
+      <c r="M101">
+        <v>33</v>
+      </c>
+      <c r="N101">
+        <v>100</v>
+      </c>
+      <c r="O101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>34</v>
+      </c>
+      <c r="B102">
+        <v>70.091324200913206</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>34</v>
+      </c>
+      <c r="F102">
+        <v>82.557189542483599</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>34</v>
+      </c>
+      <c r="J102">
+        <v>97.819314641744498</v>
+      </c>
+      <c r="K102" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>34</v>
+      </c>
+      <c r="N102">
+        <v>100</v>
+      </c>
+      <c r="O102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>35</v>
+      </c>
+      <c r="B103">
+        <v>66.552136241410196</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>35</v>
+      </c>
+      <c r="F103">
+        <v>80.775193798449607</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>35</v>
+      </c>
+      <c r="J103">
+        <v>96.740740740740705</v>
+      </c>
+      <c r="K103" t="s">
+        <v>6</v>
+      </c>
+      <c r="M103">
+        <v>35</v>
+      </c>
+      <c r="N103">
+        <v>100</v>
+      </c>
+      <c r="O103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>36</v>
+      </c>
+      <c r="B104">
+        <v>63.7667887667887</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>36</v>
+      </c>
+      <c r="F104">
+        <v>80.782608695652101</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>36</v>
+      </c>
+      <c r="J104">
+        <v>96.257485029940099</v>
+      </c>
+      <c r="K104" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104">
+        <v>36</v>
+      </c>
+      <c r="N104">
+        <v>100</v>
+      </c>
+      <c r="O104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>37</v>
+      </c>
+      <c r="B105">
+        <v>64.882837238758697</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>37</v>
+      </c>
+      <c r="F105">
+        <v>80.586816720257204</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>37</v>
+      </c>
+      <c r="J105">
+        <v>96.483180428134503</v>
+      </c>
+      <c r="K105" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105">
+        <v>37</v>
+      </c>
+      <c r="N105">
+        <v>100</v>
+      </c>
+      <c r="O105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>38</v>
+      </c>
+      <c r="B106">
+        <v>67.037552155771905</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>38</v>
+      </c>
+      <c r="F106">
+        <v>79.737489745693196</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>38</v>
+      </c>
+      <c r="J106">
+        <v>96.661608497723805</v>
+      </c>
+      <c r="K106" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106">
+        <v>38</v>
+      </c>
+      <c r="N106">
+        <v>100</v>
+      </c>
+      <c r="O106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>39</v>
+      </c>
+      <c r="B107">
+        <v>64.402668283808296</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>39</v>
+      </c>
+      <c r="F107">
+        <v>80.481513327600993</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>39</v>
+      </c>
+      <c r="J107">
+        <v>96.671709531013605</v>
+      </c>
+      <c r="K107" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>39</v>
+      </c>
+      <c r="N107">
+        <v>100</v>
+      </c>
+      <c r="O107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>40</v>
+      </c>
+      <c r="B108">
+        <v>64.165009940357805</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
+      </c>
+      <c r="F108">
+        <v>77.084957131722504</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <v>40</v>
+      </c>
+      <c r="J108">
+        <v>94.403534609720097</v>
+      </c>
+      <c r="K108" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108">
+        <v>40</v>
+      </c>
+      <c r="N108">
+        <v>100</v>
+      </c>
+      <c r="O108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109">
+        <v>60.390977443609003</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>41</v>
+      </c>
+      <c r="F109">
+        <v>77.990033222591293</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>41</v>
+      </c>
+      <c r="J109">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="K109" t="s">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>41</v>
+      </c>
+      <c r="N109">
+        <v>100</v>
+      </c>
+      <c r="O109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <v>62.569195701725803</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>42</v>
+      </c>
+      <c r="F110">
+        <v>76.652892561983407</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>42</v>
+      </c>
+      <c r="J110">
+        <v>96.312684365781706</v>
+      </c>
+      <c r="K110" t="s">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>42</v>
+      </c>
+      <c r="N110">
+        <v>100</v>
+      </c>
+      <c r="O110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>43</v>
+      </c>
+      <c r="B111">
+        <v>61.6113744075829</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>43</v>
+      </c>
+      <c r="F111">
+        <v>77.539682539682502</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>43</v>
+      </c>
+      <c r="J111">
+        <v>95.359281437125702</v>
+      </c>
+      <c r="K111" t="s">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>43</v>
+      </c>
+      <c r="N111">
+        <v>100</v>
+      </c>
+      <c r="O111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>44</v>
+      </c>
+      <c r="B112">
+        <v>59.8078197481776</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>44</v>
+      </c>
+      <c r="F112">
+        <v>77.0247933884297</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>44</v>
+      </c>
+      <c r="J112">
+        <v>94.194484760522499</v>
+      </c>
+      <c r="K112" t="s">
+        <v>6</v>
+      </c>
+      <c r="M112">
+        <v>44</v>
+      </c>
+      <c r="N112">
+        <v>100</v>
+      </c>
+      <c r="O112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>45</v>
+      </c>
+      <c r="B113">
+        <v>59.525326537113699</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>45</v>
+      </c>
+      <c r="F113">
+        <v>77.269010629599293</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>45</v>
+      </c>
+      <c r="J113">
+        <v>95.259259259259196</v>
+      </c>
+      <c r="K113" t="s">
+        <v>6</v>
+      </c>
+      <c r="M113">
+        <v>45</v>
+      </c>
+      <c r="N113">
+        <v>100</v>
+      </c>
+      <c r="O113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>59.798593350383598</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>46</v>
+      </c>
+      <c r="F114">
+        <v>76.704545454545396</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>46</v>
+      </c>
+      <c r="J114">
+        <v>95.678092399403795</v>
+      </c>
+      <c r="K114" t="s">
+        <v>6</v>
+      </c>
+      <c r="M114">
+        <v>46</v>
+      </c>
+      <c r="N114">
+        <v>100</v>
+      </c>
+      <c r="O114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>47</v>
+      </c>
+      <c r="B115">
+        <v>57.429837518463799</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>47</v>
+      </c>
+      <c r="F115">
+        <v>75.9558198810535</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>47</v>
+      </c>
+      <c r="J115">
+        <v>94.650817236255506</v>
+      </c>
+      <c r="K115" t="s">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>47</v>
+      </c>
+      <c r="N115">
+        <v>100</v>
+      </c>
+      <c r="O115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>48</v>
+      </c>
+      <c r="B116">
+        <v>55.887096774193502</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>48</v>
+      </c>
+      <c r="F116">
+        <v>73.534269199009003</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116">
+        <v>48</v>
+      </c>
+      <c r="J116">
+        <v>95.993836671802697</v>
+      </c>
+      <c r="K116" t="s">
+        <v>6</v>
+      </c>
+      <c r="M116">
+        <v>48</v>
+      </c>
+      <c r="N116">
+        <v>100</v>
+      </c>
+      <c r="O116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>49</v>
+      </c>
+      <c r="B117">
+        <v>56.773359198189397</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>49</v>
+      </c>
+      <c r="F117">
+        <v>75.533661740558202</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>49</v>
+      </c>
+      <c r="J117">
+        <v>94.7916666666666</v>
+      </c>
+      <c r="K117" t="s">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <v>49</v>
+      </c>
+      <c r="N117">
+        <v>100</v>
+      </c>
+      <c r="O117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>50</v>
+      </c>
+      <c r="B118">
+        <v>56.682103870327403</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118">
+        <v>75.396163469557905</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>93.426883308714906</v>
+      </c>
+      <c r="K118" t="s">
+        <v>6</v>
+      </c>
+      <c r="M118">
+        <v>50</v>
+      </c>
+      <c r="N118">
+        <v>100</v>
+      </c>
+      <c r="O118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>51</v>
+      </c>
+      <c r="B119">
+        <v>54.076809453471199</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>51</v>
+      </c>
+      <c r="F119">
+        <v>72.346153846153797</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119">
+        <v>51</v>
+      </c>
+      <c r="J119">
+        <v>94.705882352941103</v>
+      </c>
+      <c r="K119" t="s">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>51</v>
+      </c>
+      <c r="N119">
+        <v>100</v>
+      </c>
+      <c r="O119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>52</v>
+      </c>
+      <c r="B120">
+        <v>55.104961832061001</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>52</v>
+      </c>
+      <c r="F120">
+        <v>73.926868044515103</v>
+      </c>
+      <c r="G120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120">
+        <v>52</v>
+      </c>
+      <c r="J120">
+        <v>95.447647951441496</v>
+      </c>
+      <c r="K120" t="s">
+        <v>6</v>
+      </c>
+      <c r="M120">
+        <v>52</v>
+      </c>
+      <c r="N120">
+        <v>100</v>
+      </c>
+      <c r="O120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>53</v>
+      </c>
+      <c r="B121">
+        <v>53.494889548301998</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>53</v>
+      </c>
+      <c r="F121">
+        <v>70.939490445859803</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>53</v>
+      </c>
+      <c r="J121">
+        <v>93.955223880597003</v>
+      </c>
+      <c r="K121" t="s">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>53</v>
+      </c>
+      <c r="N121">
+        <v>100</v>
+      </c>
+      <c r="O121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>54</v>
+      </c>
+      <c r="B122">
+        <v>52.870967741935402</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>54</v>
+      </c>
+      <c r="F122">
+        <v>72.819885900570497</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>54</v>
+      </c>
+      <c r="J122">
+        <v>94.047619047618994</v>
+      </c>
+      <c r="K122" t="s">
+        <v>6</v>
+      </c>
+      <c r="M122">
+        <v>54</v>
+      </c>
+      <c r="N122">
+        <v>100</v>
+      </c>
+      <c r="O122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>55</v>
+      </c>
+      <c r="B123">
+        <v>52.741514360313303</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>55</v>
+      </c>
+      <c r="F123">
+        <v>71.921797004991603</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <v>55</v>
+      </c>
+      <c r="J123">
+        <v>94.586466165413498</v>
+      </c>
+      <c r="K123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M123">
+        <v>55</v>
+      </c>
+      <c r="N123">
+        <v>100</v>
+      </c>
+      <c r="O123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <v>56</v>
+      </c>
+      <c r="B124">
+        <v>53.3077660594439</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>56</v>
+      </c>
+      <c r="F124">
+        <v>67.623546511627893</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124">
+        <v>56</v>
+      </c>
+      <c r="J124">
+        <v>95.612708018154294</v>
+      </c>
+      <c r="K124" t="s">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>56</v>
+      </c>
+      <c r="N124">
+        <v>100</v>
+      </c>
+      <c r="O124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <v>57</v>
+      </c>
+      <c r="B125">
+        <v>48.527245949926296</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>57</v>
+      </c>
+      <c r="F125">
+        <v>68.564554931836398</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>57</v>
+      </c>
+      <c r="J125">
+        <v>94.561933534743204</v>
+      </c>
+      <c r="K125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M125">
+        <v>57</v>
+      </c>
+      <c r="N125">
+        <v>100</v>
+      </c>
+      <c r="O125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <v>58</v>
+      </c>
+      <c r="B126">
+        <v>50.855417645085502</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>58</v>
+      </c>
+      <c r="F126">
+        <v>66.395348837209298</v>
+      </c>
+      <c r="G126" t="s">
+        <v>6</v>
+      </c>
+      <c r="I126">
+        <v>58</v>
+      </c>
+      <c r="J126">
+        <v>93.231441048034895</v>
+      </c>
+      <c r="K126" t="s">
+        <v>6</v>
+      </c>
+      <c r="M126">
+        <v>58</v>
+      </c>
+      <c r="N126">
+        <v>100</v>
+      </c>
+      <c r="O126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <v>59</v>
+      </c>
+      <c r="B127">
+        <v>50.432692307692299</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>59</v>
+      </c>
+      <c r="F127">
+        <v>67.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127">
+        <v>59</v>
+      </c>
+      <c r="J127">
+        <v>95.433789954337897</v>
+      </c>
+      <c r="K127" t="s">
+        <v>6</v>
+      </c>
+      <c r="M127">
+        <v>59</v>
+      </c>
+      <c r="N127">
+        <v>100</v>
+      </c>
+      <c r="O127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128">
+        <v>60</v>
+      </c>
+      <c r="B128">
+        <v>49.706935851514103</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>60</v>
+      </c>
+      <c r="F128">
+        <v>67.666126418152302</v>
+      </c>
+      <c r="G128" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>60</v>
+      </c>
+      <c r="J128">
+        <v>93.553223388305796</v>
+      </c>
+      <c r="K128" t="s">
+        <v>6</v>
+      </c>
+      <c r="M128">
+        <v>60</v>
+      </c>
+      <c r="N128">
+        <v>100</v>
+      </c>
+      <c r="O128" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C68" r:id="rId1" xr:uid="{E1D93370-8EAE-43BA-9BD1-D401965A4118}"/>
+    <hyperlink ref="G68" r:id="rId2" xr:uid="{2B109103-2B0C-4ED2-AE30-BCF7C2595928}"/>
+    <hyperlink ref="K68" r:id="rId3" xr:uid="{C9791797-B3BE-4280-8B22-855033C13D93}"/>
+    <hyperlink ref="O68" r:id="rId4" xr:uid="{A2BED40F-7E25-4FFF-9BD3-3CEB520322E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>